--- a/Excel/Milano/season1_Milano.xlsx
+++ b/Excel/Milano/season1_Milano.xlsx
@@ -2408,7 +2408,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cocò (Stoppi)</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="B37" t="n">

--- a/Excel/Milano/season1_Milano.xlsx
+++ b/Excel/Milano/season1_Milano.xlsx
@@ -518,21 +518,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -554,19 +554,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.59</v>
+        <v>1.96</v>
       </c>
       <c r="M2" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>14.47</v>
+        <v>11.17</v>
       </c>
       <c r="O2" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -579,14 +579,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -596,10 +596,10 @@
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -608,25 +608,25 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="M3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>10.65</v>
+        <v>10.67</v>
       </c>
       <c r="O3" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Andrea Limonta</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -636,11 +636,11 @@
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -650,10 +650,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -662,39 +662,39 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.14</v>
+        <v>2.45</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="N4" t="n">
-        <v>10.5</v>
+        <v>11.41</v>
       </c>
       <c r="O4" t="n">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -716,39 +716,39 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.82</v>
+        <v>3.59</v>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N5" t="n">
-        <v>10.32</v>
+        <v>14.47</v>
       </c>
       <c r="O5" t="n">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="P5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Andrea Limonta</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -758,31 +758,31 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>2.29</v>
+        <v>0.13</v>
       </c>
       <c r="M6" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>10.57</v>
+        <v>10.65</v>
       </c>
       <c r="O6" t="n">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="P6" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -795,14 +795,14 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="M7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N7" t="n">
-        <v>10.14</v>
+        <v>10.05</v>
       </c>
       <c r="O7" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -842,160 +842,160 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0.71</v>
+        <v>3.53</v>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="N8" t="n">
-        <v>10.76</v>
+        <v>13.67</v>
       </c>
       <c r="O8" t="n">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Federico Paolucci</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
         <v>9</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.26</v>
+        <v>0.71</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N9" t="n">
-        <v>9.470000000000001</v>
+        <v>10.76</v>
       </c>
       <c r="O9" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P9" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Federico Paolucci</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.29</v>
+        <v>0.26</v>
       </c>
       <c r="M10" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>12.64</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P10" t="n">
         <v>-2</v>
@@ -1004,61 +1004,61 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Roby (Cri)</t>
+          <t>Fabrizio Limonta</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="M11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N11" t="n">
-        <v>9.81</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fabrizio Limonta</t>
+          <t>Roby (Cri)</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1079,34 +1079,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N12" t="n">
-        <v>9.44</v>
+        <v>9.81</v>
       </c>
       <c r="O12" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1227,14 +1227,14 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1256,70 +1256,70 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>11.89</v>
+        <v>12.8</v>
       </c>
       <c r="O15" t="n">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="P15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Matteo (Riccardo)</t>
+          <t>Riccardo Ricci</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.71</v>
+        <v>0.64</v>
       </c>
       <c r="M16" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>10.18</v>
       </c>
       <c r="O16" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -1328,49 +1328,49 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Riccardo Ricci</t>
+          <t>Matteo (Riccardo)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7</v>
+        <v>1.71</v>
       </c>
       <c r="M17" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N17" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>105</v>
@@ -1382,169 +1382,169 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Franco</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
         <v>3</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>10.1</v>
+        <v>8.42</v>
       </c>
       <c r="O18" t="n">
         <v>101</v>
       </c>
       <c r="P18" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Franco</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>8.42</v>
+        <v>10.1</v>
       </c>
       <c r="O19" t="n">
         <v>101</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Maurizio</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N20" t="n">
-        <v>10.44</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O20" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Maurizio</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1554,30 +1554,30 @@
         <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>1.11</v>
@@ -1586,13 +1586,13 @@
         <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>9.890000000000001</v>
+        <v>10.44</v>
       </c>
       <c r="O21" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P21" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1646,7 +1646,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -1862,7 +1862,7 @@
         <v>65</v>
       </c>
       <c r="P26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2300,21 +2300,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Davide Ang</t>
+          <t>Marco Taglio</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2336,39 +2336,39 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N35" t="n">
-        <v>11.67</v>
+        <v>9</v>
       </c>
       <c r="O35" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P35" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Davide Ang</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2390,39 +2390,39 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>7.25</v>
+        <v>11.67</v>
       </c>
       <c r="O36" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P36" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Coco' (Stoppi)</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2444,52 +2444,52 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>14</v>
+        <v>7.25</v>
       </c>
       <c r="O37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P37" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Alessandro Gibertini</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2498,73 +2498,73 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>9.33</v>
+        <v>14</v>
       </c>
       <c r="O38" t="n">
         <v>28</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ale Guati</t>
+          <t>Alessandro Gibertini</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>13</v>
+        <v>9.33</v>
       </c>
       <c r="O39" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" t="n">
         <v>3</v>
@@ -2624,34 +2624,34 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Rudy Vitiello</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2660,39 +2660,39 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>7.67</v>
+        <v>13</v>
       </c>
       <c r="O41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P41" t="n">
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fede Lelli</t>
+          <t>Ale Guati</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2705,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O42" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P42" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Marco Taglio</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2742,11 +2742,11 @@
         <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2768,29 +2768,29 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>6.67</v>
+        <v>7.67</v>
       </c>
       <c r="O43" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Leo (Cava)</t>
+          <t>Fede Lelli</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2822,39 +2822,39 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Andrea DeGa</t>
+          <t>Leo (Cava)</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2876,39 +2876,39 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>6.33</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Gianpiero</t>
+          <t>Andrea DeGa</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2936,19 +2936,19 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>6.33</v>
       </c>
       <c r="O46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P46" t="n">
-        <v>-8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ale (Mazzu)</t>
+          <t>Gianpiero</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2990,33 +2990,33 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P47" t="n">
-        <v>7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Eugenio Gibertini</t>
+          <t>Ale (Mazzu)</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -3038,25 +3038,25 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="O48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Matteo (Mazzu)</t>
+          <t>Eugenio Gibertini</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3098,10 +3098,10 @@
         <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -3110,11 +3110,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Giacomo (Stoppi)</t>
+          <t>Matteo (Mazzu)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -3164,11 +3164,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Amico Gio</t>
+          <t>Giacomo (Stoppi)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -3200,16 +3200,16 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ingra</t>
+          <t>Amico Gio</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3260,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Gio (Matteo)</t>
+          <t>Ingra</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Jacopo (Gianluca)</t>
+          <t>Gio (Matteo)</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3368,10 +3368,10 @@
         <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3380,11 +3380,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fabio (Gianluca)</t>
+          <t>Jacopo (Gianluca)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -3488,34 +3488,34 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Rudy Vitiello</t>
+          <t>Fabio (Gianluca)</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3530,10 +3530,10 @@
         <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3965,10 +3965,10 @@
         <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/season1_Milano.xlsx
+++ b/Excel/Milano/season1_Milano.xlsx
@@ -518,21 +518,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -554,19 +554,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.96</v>
+        <v>3.59</v>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="N2" t="n">
-        <v>11.17</v>
+        <v>14.47</v>
       </c>
       <c r="O2" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="P2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -579,14 +579,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -596,10 +596,10 @@
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -608,25 +608,25 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N3" t="n">
-        <v>10.67</v>
+        <v>10.65</v>
       </c>
       <c r="O3" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Andrea Limonta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -636,11 +636,11 @@
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -650,10 +650,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -662,39 +662,39 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.45</v>
+        <v>0.14</v>
       </c>
       <c r="M4" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>11.41</v>
+        <v>10.5</v>
       </c>
       <c r="O4" t="n">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="P4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -716,39 +716,39 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3.59</v>
+        <v>1.82</v>
       </c>
       <c r="M5" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>14.47</v>
+        <v>10.32</v>
       </c>
       <c r="O5" t="n">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Andrea Limonta</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -758,31 +758,31 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.13</v>
+        <v>2.29</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="N6" t="n">
-        <v>10.65</v>
+        <v>10.57</v>
       </c>
       <c r="O6" t="n">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7">
@@ -795,45 +795,45 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>147</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M7" t="n">
         <v>12</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>160</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M7" t="n">
-        <v>13</v>
-      </c>
       <c r="N7" t="n">
-        <v>10.05</v>
+        <v>10.14</v>
       </c>
       <c r="O7" t="n">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -842,160 +842,160 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3.53</v>
+        <v>0.71</v>
       </c>
       <c r="M8" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="N8" t="n">
-        <v>13.67</v>
+        <v>10.76</v>
       </c>
       <c r="O8" t="n">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="P8" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Federico Paolucci</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
         <v>9</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.71</v>
+        <v>0.26</v>
       </c>
       <c r="M9" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>10.76</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Federico Paolucci</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>0.26</v>
+        <v>3.29</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="N10" t="n">
-        <v>9.369999999999999</v>
+        <v>12.64</v>
       </c>
       <c r="O10" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P10" t="n">
         <v>-2</v>
@@ -1004,61 +1004,61 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fabrizio Limonta</t>
+          <t>Roby (Cri)</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N11" t="n">
-        <v>9.470000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="O11" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Roby (Cri)</t>
+          <t>Fabrizio Limonta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1079,34 +1079,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N12" t="n">
-        <v>9.81</v>
+        <v>9.44</v>
       </c>
       <c r="O12" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -1227,14 +1227,14 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1256,70 +1256,70 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N15" t="n">
-        <v>12.8</v>
+        <v>11.89</v>
       </c>
       <c r="O15" t="n">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Riccardo Ricci</t>
+          <t>Matteo (Riccardo)</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0.64</v>
+        <v>1.71</v>
       </c>
       <c r="M16" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N16" t="n">
-        <v>10.18</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -1328,49 +1328,49 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Matteo (Riccardo)</t>
+          <t>Riccardo Ricci</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.71</v>
+        <v>0.7</v>
       </c>
       <c r="M17" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="O17" t="n">
         <v>105</v>
@@ -1382,169 +1382,169 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Franco</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>8.42</v>
+        <v>10.1</v>
       </c>
       <c r="O18" t="n">
         <v>101</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Franco</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
         <v>3</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>10.1</v>
+        <v>8.42</v>
       </c>
       <c r="O19" t="n">
         <v>101</v>
       </c>
       <c r="P19" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Maurizio</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>55</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M20" t="n">
         <v>10</v>
       </c>
-      <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>92</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>11</v>
-      </c>
       <c r="N20" t="n">
-        <v>9.699999999999999</v>
+        <v>10.44</v>
       </c>
       <c r="O20" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P20" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Maurizio</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1554,30 +1554,30 @@
         <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
         <v>1.11</v>
@@ -1586,13 +1586,13 @@
         <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>10.44</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="O21" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -1646,7 +1646,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23">
@@ -1862,7 +1862,7 @@
         <v>65</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2300,21 +2300,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Marco Taglio</t>
+          <t>Davide Ang</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2336,93 +2336,93 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="M35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>11.67</v>
       </c>
       <c r="O35" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P35" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Davide Ang</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>35</v>
       </c>
       <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>26</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M36" t="n">
         <v>3</v>
       </c>
-      <c r="D36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
       <c r="N36" t="n">
-        <v>11.67</v>
+        <v>7.25</v>
       </c>
       <c r="O36" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P36" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2444,52 +2444,52 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>7.25</v>
+        <v>14</v>
       </c>
       <c r="O37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P37" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Coco' (Stoppi)</t>
+          <t>Alessandro Gibertini</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2498,73 +2498,73 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>14</v>
+        <v>9.33</v>
       </c>
       <c r="O38" t="n">
         <v>28</v>
       </c>
       <c r="P38" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Alessandro Gibertini</t>
+          <t>Ale Guati</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>9.33</v>
+        <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" t="n">
         <v>3</v>
@@ -2624,34 +2624,34 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Rudy Vitiello</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2660,39 +2660,39 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>13</v>
+        <v>7.67</v>
       </c>
       <c r="O41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P41" t="n">
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ale Guati</t>
+          <t>Fede Lelli</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2705,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Marco Taglio</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2742,11 +2742,11 @@
         <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2768,29 +2768,29 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N43" t="n">
-        <v>7.67</v>
+        <v>6.67</v>
       </c>
       <c r="O43" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fede Lelli</t>
+          <t>Leo (Cava)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2822,39 +2822,39 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P44" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Leo (Cava)</t>
+          <t>Andrea DeGa</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2876,39 +2876,39 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>6.33</v>
       </c>
       <c r="O45" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Andrea DeGa</t>
+          <t>Gianpiero</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2936,19 +2936,19 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>6.33</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gianpiero</t>
+          <t>Ale (Mazzu)</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2990,33 +2990,33 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O47" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P47" t="n">
-        <v>-8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ale (Mazzu)</t>
+          <t>Eugenio Gibertini</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -3038,25 +3038,25 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>8.5</v>
+        <v>16</v>
       </c>
       <c r="O48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P48" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Eugenio Gibertini</t>
+          <t>Matteo (Mazzu)</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3098,10 +3098,10 @@
         <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O49" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -3110,11 +3110,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Matteo (Mazzu)</t>
+          <t>Giacomo (Stoppi)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -3164,11 +3164,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Giacomo (Stoppi)</t>
+          <t>Amico Gio</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -3200,16 +3200,16 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Amico Gio</t>
+          <t>Ingra</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3260,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ingra</t>
+          <t>Gio (Matteo)</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gio (Matteo)</t>
+          <t>Jacopo (Gianluca)</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3368,10 +3368,10 @@
         <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3380,11 +3380,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Jacopo (Gianluca)</t>
+          <t>Fabio (Gianluca)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -3488,34 +3488,34 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fabio (Gianluca)</t>
+          <t>Rudy Vitiello</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3530,10 +3530,10 @@
         <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3965,10 +3965,10 @@
         <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/season1_Milano.xlsx
+++ b/Excel/Milano/season1_Milano.xlsx
@@ -620,7 +620,7 @@
         <v>245</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -836,7 +836,7 @@
         <v>213</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -890,7 +890,7 @@
         <v>183</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1106,7 +1106,7 @@
         <v>151</v>
       </c>
       <c r="P12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1160,7 +1160,7 @@
         <v>141</v>
       </c>
       <c r="P13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1268,7 +1268,7 @@
         <v>107</v>
       </c>
       <c r="P15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1322,7 +1322,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1376,7 +1376,7 @@
         <v>105</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1430,7 +1430,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1538,7 +1538,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1592,7 +1592,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1646,7 +1646,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1754,7 +1754,7 @@
         <v>68</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1862,7 +1862,7 @@
         <v>65</v>
       </c>
       <c r="P26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1916,7 +1916,7 @@
         <v>60</v>
       </c>
       <c r="P27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1970,7 +1970,7 @@
         <v>57</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2186,7 +2186,7 @@
         <v>40</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2240,7 +2240,7 @@
         <v>37</v>
       </c>
       <c r="P33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2294,7 +2294,7 @@
         <v>37</v>
       </c>
       <c r="P34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2402,7 +2402,7 @@
         <v>29</v>
       </c>
       <c r="P36" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2456,7 +2456,7 @@
         <v>28</v>
       </c>
       <c r="P37" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="P41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2726,7 +2726,7 @@
         <v>22</v>
       </c>
       <c r="P42" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2780,7 +2780,7 @@
         <v>20</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2888,7 +2888,7 @@
         <v>19</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2942,7 +2942,7 @@
         <v>18</v>
       </c>
       <c r="P46" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2996,7 +2996,7 @@
         <v>17</v>
       </c>
       <c r="P47" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">

--- a/Excel/Milano/season1_Milano.xlsx
+++ b/Excel/Milano/season1_Milano.xlsx
@@ -620,7 +620,7 @@
         <v>245</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -728,7 +728,7 @@
         <v>227</v>
       </c>
       <c r="P5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -782,7 +782,7 @@
         <v>222</v>
       </c>
       <c r="P6" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -836,7 +836,7 @@
         <v>213</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8">
@@ -890,7 +890,7 @@
         <v>183</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
@@ -944,7 +944,7 @@
         <v>180</v>
       </c>
       <c r="P9" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -998,7 +998,7 @@
         <v>177</v>
       </c>
       <c r="P10" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1106,7 +1106,7 @@
         <v>151</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1160,7 +1160,7 @@
         <v>141</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1268,7 +1268,7 @@
         <v>107</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1322,7 +1322,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -1376,7 +1376,7 @@
         <v>105</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="18">
@@ -1430,7 +1430,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1538,7 +1538,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="21">
@@ -1592,7 +1592,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1646,7 +1646,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1754,7 +1754,7 @@
         <v>68</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25">
@@ -1862,7 +1862,7 @@
         <v>65</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="27">
@@ -1916,7 +1916,7 @@
         <v>60</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="28">
@@ -1970,7 +1970,7 @@
         <v>57</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
@@ -2024,7 +2024,7 @@
         <v>54</v>
       </c>
       <c r="P29" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2132,7 +2132,7 @@
         <v>41</v>
       </c>
       <c r="P31" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2186,7 +2186,7 @@
         <v>40</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -2240,7 +2240,7 @@
         <v>37</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2294,7 +2294,7 @@
         <v>37</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="35">
@@ -2348,7 +2348,7 @@
         <v>35</v>
       </c>
       <c r="P35" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2402,7 +2402,7 @@
         <v>29</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2456,7 +2456,7 @@
         <v>28</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -2510,7 +2510,7 @@
         <v>28</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2618,7 +2618,7 @@
         <v>26</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="42">
@@ -2726,7 +2726,7 @@
         <v>22</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2888,7 +2888,7 @@
         <v>19</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="46">
@@ -2942,7 +2942,7 @@
         <v>18</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2996,7 +2996,7 @@
         <v>17</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="48">
